--- a/src/main/resources/python/MultifacetedModeling/RuleExtraction/MLR/training_result.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/RuleExtraction/MLR/training_result.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="all" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="all_pos" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="all_copy" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="data" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="data-3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="all" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="all_pos" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="all_copy" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data-3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -2735,154 +2735,154 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>-0.0027794853193054774</t>
+          <t>-0.0027794853193053434</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>-0.054088070282611006</t>
+          <t>-0.054088070282610895</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.015437343946540573</t>
+          <t>0.015437343946540031</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.0261384106880822</t>
+          <t>0.02613841068808238</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>-0.009282065578933185</t>
+          <t>-0.009282065578932665</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.026520397682764665</t>
+          <t>0.02652039768276448</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>-0.04622557052536911</t>
+          <t>-0.046225570525368805</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>-0.07142258544379378</t>
+          <t>-0.07142258544379328</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.013344137326616623</t>
+          <t>0.013344137326617342</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>-0.016303849326514866</t>
+          <t>-0.016303849326514536</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>-0.07238095992938606</t>
+          <t>-0.07238095992938659</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0.058307548781213525</t>
+          <t>0.05830754878121364</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0.030423183699345345</t>
+          <t>0.03042318369934611</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>-0.993779138453443</t>
+          <t>-0.9937791384534312</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>-0.4229618766095609</t>
+          <t>-0.42296187660955575</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.1546354162175665</t>
+          <t>1.1546354162175505</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.04215958451859666</t>
+          <t>0.042159584518596686</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>-0.07552428978922643</t>
+          <t>-0.07552428978922547</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>-0.015515381910183946</t>
+          <t>-0.015515381910184324</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>-0.0787253699761424</t>
+          <t>-0.07872536997614227</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0.037922854635045286</t>
+          <t>0.03792285463504565</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>-0.009019493125707467</t>
+          <t>-0.009019493125707727</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/RuleExtraction/MLR/training_result.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/RuleExtraction/MLR/training_result.xlsx
@@ -2735,119 +2735,119 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>-0.0027794853193053434</t>
+          <t>-0.0027794853193052966</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>-0.054088070282610895</t>
+          <t>-0.05408807028261065</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.015437343946540031</t>
+          <t>0.01543734394653991</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.02613841068808238</t>
+          <t>0.02613841068808239</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>-0.009282065578932665</t>
+          <t>-0.009282065578932568</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.02652039768276448</t>
+          <t>0.026520397682764395</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>-0.046225570525368805</t>
+          <t>-0.04622557052536869</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>-0.07142258544379328</t>
+          <t>-0.07142258544379321</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.013344137326617342</t>
+          <t>0.013344137326617477</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>-0.016303849326514536</t>
+          <t>-0.01630384932651447</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>-0.07238095992938659</t>
+          <t>-0.07238095992938655</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0.05830754878121364</t>
+          <t>0.0583075487812135</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0.03042318369934611</t>
+          <t>0.03042318369934607</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>-0.9937791384534312</t>
+          <t>-0.9937791384534307</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>-0.42296187660955575</t>
+          <t>-0.4229618766095553</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.1546354162175505</t>
+          <t>1.1546354162175496</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.042159584518596686</t>
+          <t>0.04215958451859651</t>
         </is>
       </c>
     </row>
@@ -2861,28 +2861,28 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>-0.015515381910184324</t>
+          <t>-0.015515381910184204</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>-0.07872536997614227</t>
+          <t>-0.07872536997614236</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0.03792285463504565</t>
+          <t>0.037922854635045716</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>-0.009019493125707727</t>
+          <t>-0.009019493125707849</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/RuleExtraction/MLR/training_result.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/RuleExtraction/MLR/training_result.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="all" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="all_pos" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="all_copy" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data-3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="all" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="all_pos" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="all_copy" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="data" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="data-3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -2735,119 +2735,119 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>-0.0027794853193052966</t>
+          <t>-0.0027794853193053434</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>-0.05408807028261065</t>
+          <t>-0.054088070282610895</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.01543734394653991</t>
+          <t>0.015437343946540031</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.02613841068808239</t>
+          <t>0.02613841068808238</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>-0.009282065578932568</t>
+          <t>-0.009282065578932665</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.026520397682764395</t>
+          <t>0.02652039768276448</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>-0.04622557052536869</t>
+          <t>-0.046225570525368805</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>-0.07142258544379321</t>
+          <t>-0.07142258544379328</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.013344137326617477</t>
+          <t>0.013344137326617342</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>-0.01630384932651447</t>
+          <t>-0.016303849326514536</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>-0.07238095992938655</t>
+          <t>-0.07238095992938659</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0.0583075487812135</t>
+          <t>0.05830754878121364</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0.03042318369934607</t>
+          <t>0.03042318369934611</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>-0.9937791384534307</t>
+          <t>-0.9937791384534312</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>-0.4229618766095553</t>
+          <t>-0.42296187660955575</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.1546354162175496</t>
+          <t>1.1546354162175505</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.04215958451859651</t>
+          <t>0.042159584518596686</t>
         </is>
       </c>
     </row>
@@ -2861,28 +2861,28 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>-0.015515381910184204</t>
+          <t>-0.015515381910184324</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>-0.07872536997614236</t>
+          <t>-0.07872536997614227</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0.037922854635045716</t>
+          <t>0.03792285463504565</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>-0.009019493125707849</t>
+          <t>-0.009019493125707727</t>
         </is>
       </c>
     </row>
